--- a/result/0-shot/Baichuan-13B/response/BPlevel/response.xlsx
+++ b/result/0-shot/Baichuan-13B/response/BPlevel/response.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>response</t>
+          <t>CoT</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>（B）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据患者的收缩压（SBP）和/或舒张压（DBP）来划分的。具体分级如下：
+- 1级高血压：SBP ≥ 140 mmHg 和/或 DBP ≥ 90 mmHg
+- 2级高血压：SBP ≥ 160 mmHg 和/或 DBP ≥ 100 mmHg
+- 3级高血压：SBP ≥ 180 mmHg 和/或 DBP ≥ 110 mmHg
+根据患者描述，患者的SBP为140 mmHg，DBP为90 mmHg，因此属于1级高血压。所以正确答案是（D）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -559,7 +563,10 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>在《中国高血压防治指南2018》中，高血压的分级是根据患者的收缩压和舒张压来确定的。对于50岁的患者，如果其收缩压大于等于140mmHg且小于160mmHg，而舒张压小于90mmHg，那么其被分类为1级高血压。如果收缩压大于等于160mmHg，则被分类为2级高血压。
+根据患者描述，患者的收缩压为140 mmHg，舒张压为90 mmHg，因此符合1级高血压的标准。
+所以，正确答案是：
+（C）1级高血压</t>
         </is>
       </c>
     </row>
@@ -607,7 +614,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，对于50岁的患者，如果收缩压（SBP）为150 mmHg，舒张压（DBP）为90 mmHg，可以诊断为1级高血压（B）。这是因为在《中国高血压防治指南2018》中，1级高血压定义为收缩压在140-159 mmHg之间，或者舒张压在90-99 mmHg之间的高血压。因此，该患者符合1级高血压的诊断标准。</t>
         </is>
       </c>
     </row>
@@ -657,7 +664,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据血压值和是否合并其他心血管危险因素。对于50岁的患者，如果收缩压（SBP）≥140 mmHg和/或舒张压（DBP）≥90 mmHg，则诊断为高血压。
+在本例中，患者的收缩压为150 mmHg，舒张压为90 mmHg，因此属于高血压。然而，高血压的分级不仅取决于血压值，还取决于是否存在其他心血管疾病的危险因素。根据患者的描述，患者的心率、肾功能、血钾、血肌酐等指标均在正常范围内，无吸烟或饮酒史，无家族史，无手术史，无既往病史，因此没有其他心血管疾病的危险因素。
+根据这些信息，我们可以将患者分为1级高血压（轻度高血压），因为患者的血压值虽然偏高，但并未达到2级高血压的标准，且没有其他心血管疾病的危险因素。
+因此，正确的答案是：
+（C）1级高血压</t>
         </is>
       </c>
     </row>
@@ -707,7 +718,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>（D）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类和分级如下：
+- 正常血压：收缩压≤120 mmHg 和 舒张压≤80 mmHg
+- 1级高血压：收缩压在140-159 mmHg 或 舒张压在90-99 mmHg
+- 2级高血压：收缩压≥160 mmHg 或 舒张压≥100 mmHg
+- 单纯收缩期高血压：收缩压≥140 mmHg 且 舒张压&lt;90 mmHg
+根据患者的描述，他的收缩压为150 mmHg，舒张压为91 mmHg，因此属于1级高血压。同时，由于他的舒张压高于90 mmHg，所以不能诊断为单纯收缩期高血压。
+因此，根据上述信息，该患者的血压分级是（C）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -757,7 +774,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>（C）3级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级标准如下：
+- 1级高血压：收缩压（SBP）在140-159 mmHg之间，或者舒张压（DBP）在90-99 mmHg之间。
+- 2级高血压：收缩压在160 mmHg以上，或者舒张压在100 mmHg以上。
+- 3级高血压：收缩压在180 mmHg以上，或者舒张压在110 mmHg以上。
+根据患者描述的信息，患者的收缩压为150 mmHg，舒张压为91 mmHg，因此属于1级高血压。
+所以，正确答案是（A）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -807,7 +829,13 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>（D）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据患者的收缩压和舒张压水平。具体分级如下：
+- 正常血压：收缩压≤120 mmHg 和 舒张压≤80 mmHg
+- 正常高值：收缩压在120-129 mmHg 或 舒张压在80-89 mmHg
+- 1级高血压：收缩压在130-139 mmHg 或 舒张压在85-89 mmHg
+- 2级高血压：收缩压在140-159 mmHg 或 舒张压在90-99 mmHg
+- 3级高血压：收缩压≥160 mmHg 或 舒张压≥100 mmHg
+根据患者描述，其收缩压为153 mmHg，舒张压为92 mmHg，因此属于2级高血压。所以正确答案是（D）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -857,7 +885,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>（A）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，对于53岁的男性患者，如果收缩压（SBP）为153 mmHg，舒张压（DBP）为92 mmHg，可以将其分为1级高血压。这是因为在2018年的指南中，将高血压分为四个等级，其中1级高血压定义为收缩压在140-159 mmHg或舒张压在90-99 mmHg之间。因此，根据患者的血压数值，他属于1级高血压。</t>
         </is>
       </c>
     </row>
@@ -907,7 +935,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据收缩压（SBP）和舒张压（DBP）的数值来划分。对于52岁的男性患者，其收缩压为148 mmHg，舒张压为95 mmHg，根据指南中的分类标准，可以将其划分为以下级别：
+1级高血压：收缩压在140-159 mmHg之间，或舒张压在90-99 mmHg之间；
+2级高血压：收缩压≥160 mmHg，或舒张压≥100 mmHg；
+单纯收缩期高血压：仅收缩压升高，而舒张压正常（≤90 mmHg）。
+由于该患者收缩压高于140 mmHg且舒张压低于90 mmHg，因此他属于单纯收缩期高血压。
+所以，正确的答案是（A）单纯收缩期高血压。</t>
         </is>
       </c>
     </row>
@@ -957,7 +990,13 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准是：
+- 正常血压：收缩压（SBP）&lt; 120 mmHg 和 舒张压（DBP）&lt; 80 mmHg
+- 1级高血压（轻度）：收缩压（SBP）在 140~159 mmHg 或 舒张压（DBP）在 90~99 mmHg
+- 2级高血压（中度）：收缩压（SBP）在 160~179 mmHg 或 舒张压（DBP）在 100~109 mmHg
+- 单纯收缩期高血压：收缩压（SBP）≥ 140 mmHg 且 舒张压（DBP）&lt; 90 mmHg
+- 高血压危象：收缩压（SBP）≥ 180 mmHg 或 舒张压（DBP）≥ 120 mmHg
+根据患者的描述，他的收缩压为153 mmHg，舒张压为95 mmHg，因此属于2级高血压（中度）。所以正确答案是 D）2级高血压。</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1046,15 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>（D）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准是：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 正常高值：收缩压（SBP）在120-129 mmHg 或者 舒张压（DBP）在80-89 mmHg
+- 1级高血压：收缩压在130-139 mmHg 或者 舒张压在85-89 mmHg
+- 2级高血压：收缩压在140-159 mmHg 或者 舒张压在90-99 mmHg
+- 3级高血压：收缩压≥160 mmHg 或者 舒张压≥100 mmHg
+根据患者描述，患者的收缩压为145 mmHg，舒张压为93 mmHg，因此属于2级高血压。
+所以，正确答案是：
+（D）1级高血压</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1104,8 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据收缩压（SBP）和舒张压（DBP）的数值。对于53岁的男性患者，如果收缩压≥160 mmHg和/或舒张压≥100 mmHg，则被归类为3级高血压（A）。单纯收缩期高血压是指收缩压≥140 mmHg和舒张压&lt;90 mmHg（B）。如果收缩压在140-159 mmHg之间，舒张压在90-99 mmHg之间，则为1级高血压（C）。如果收缩压≤139 mmHg且舒张压≤89 mmHg，则被认为是正常血压（D）。
+根据患者描述，其收缩压为153 mmHg，舒张压为92 mmHg，因此，该患者的血压属于1级高血压（C）。</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1155,13 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>（B）血压正常高值</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据血压水平以及是否存在其他心血管疾病的危险因素。对于这位55岁的男性患者，他的收缩压（SBP）为148 mmHg，舒张压（DBP）为94 mmHg，根据2018年中国高血压防治指南，他的血压属于1级高血压（也称为轻度高血压）。
+选项分析如下：
+（A）1级高血压：根据指南，1级高血压定义为收缩压在140-159 mmHg之间，或舒张压在90-99 mmHg之间。该患者符合这个标准。
+（B）血压正常高值：这个选项通常指的是收缩压在130-139 mmHg或舒张压在85-89 mmHg之间，而该患者并不符合这个范围。
+（C）单纯收缩期高血压：这个选项指的是收缩压升高而舒张压正常的情况，但该患者舒张压也高于正常范围，因此不符合单纯收缩期高血压的定义。
+（D）正常血压：正常血压通常指收缩压低于140 mmHg且舒张压低于90 mmHg，而该患者收缩压和舒张压均高于正常范围，因此不属于正常血压。
+综上所述，根据患者的血压水平和《中国高血压防治指南2018》的标准，该患者的血压分级为1级高血压。</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1209,8 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据患者的收缩压（SBP）和舒张压（DBP）。对于55岁的男性患者，如果收缩压≥140 mmHg且&lt;160 mmHg，舒张压&lt;90 mmHg，则被归类为1级高血压（B）。
+因此，对于这位55岁男性患者，他的收缩压为148 mmHg，舒张压为94 mmHg，属于1级高血压。所以正确答案是（B）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1260,8 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>（C）血压正常高值</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据患者的收缩压和舒张压来划分的。具体来说，1级高血压定义为收缩压在140-159 mmHg之间，或者舒张压在90-99 mmHg之间；2级高血压定义为收缩压在160 mmHg或以上，或者舒张压在100 mmHg或以上；3级高血压定义为收缩压在180 mmHg或以上，或者舒张压在110 mmHg或以上。
+对于这位56岁的男性患者，他的收缩压为157 mmHg，舒张压为93 mmHg，因此他的血压属于1级高血压的范围。所以正确的答案是（A）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1311,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据血压值和是否伴有其他心血管危险因素或目标器官损害。对于这位56岁的女性患者，她的血压值为收缩压（SBP）149 mmHg，舒张压（DBP）93 mmHg，属于高血压的范围。
+接下来，我们来看患者的血压分级：
+- 正常血压范围是 SBP &lt; 120 mmHg 和 DBP &lt; 80 mmHg；
+- 1级高血压是 SBP 140-159 mmHg 或 DBP 90-99 mmHg；
+- 2级高血压是 SBP ≥ 160 mmHg 或 DBP ≥ 100 mmHg。
+由于患者的SBP为149 mmHg，属于1级高血压的范围。因此，根据上述标准，该患者属于1级高血压。
+所以，正确的答案是：
+（D）1级高血压</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1368,9 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据收缩压（SBP）和舒张压（DBP）的数值。对于50岁的患者，如果收缩压在140-159 mmHg之间，舒张压在90-99 mmHg之间，则被归类为1级高血压；如果收缩压≥160 mmHg，舒张压≥100 mmHg，则被归类为2级高血压。
+在本例中，患者的收缩压为147 mmHg，舒张压为96 mmHg，因此属于1级高血压的范围。所以，正确的答案是：
+（B）1级高血压</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1420,13 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>（D）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级标准如下：
+- 1级高血压：收缩压（SBP）在140~159 mmHg之间，或者舒张压（DBP）在90~99 mmHg之间。
+- 2级高血压：收缩压在160~179 mmHg之间，或者舒张压在100~109 mmHg之间。
+- 3级高血压：收缩压≥180 mmHg，或者舒张压≥110 mmHg。
+- 正常血压：收缩压≤130 mmHg，舒张压≤85 mmHg。
+根据患者描述，患者的收缩压为158 mmHg，舒张压为94 mmHg，因此属于1级高血压。所以正确答案是：
+（A）1级高血压</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1476,15 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据血压水平，结合其他危险因素和靶器官损害情况。对于这位50岁的男性患者，他的收缩压为156 mmHg，舒张压为93 mmHg，属于高血压的范围。
+根据指南，将高血压分为以下四级：
+1. 正常血压：收缩压≤120 mmHg 和 舒张压≤80 mmHg；
+2. 正常高值：收缩压120-129 mmHg 或 舒张压80-89 mmHg；
+3. 1级高血压（轻度）：收缩压130-139 mmHg 或 舒张压85-89 mmHg；
+4. 2级高血压（中度）：收缩压140-159 mmHg 或 舒张压90-99 mmHg；
+5. 3级高血压（重度）：收缩压≥160 mmHg 或 舒张压≥100 mmHg。
+由于该患者收缩压为156 mmHg，超过了140 mmHg，但未达到160 mmHg，因此他属于2级高血压（中度）。所以，正确答案是：
+（B）1级高血压</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1534,10 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>（C）3级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据患者的收缩压（SBP）和舒张压（DBP）来划分的。具体来说，1级高血压定义为SBP在140-159 mmHg或者DBP在90-99 mmHg；2级高血压定义为SBP≥160 mmHg或者DBP≥100 mmHg。
+根据患者描述，患者的SBP为158 mmHg，DBP为92 mmHg，因此属于2级高血压的范围。
+所以，正确答案是：
+（A）2级高血压</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1587,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准是：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 正常高值：120 mmHg &lt; SBP ≤ 129 mmHg 或者 80 mmHg &lt; DBP ≤ 89 mmHg
+- 1级高血压：130 mmHg ≤ SBP ≤ 139 mmHg 或者 85 mmHg ≤ DBP ≤ 89 mmHg
+- 2级高血压：SBP &gt; 140 mmHg 或者 DBP &gt; 90 mmHg
+- 单纯收缩期高血压：SBP ≥ 140 mmHg 且 DBP &lt; 90 mmHg
+根据患者描述，患者的收缩压为156 mmHg，舒张压为92 mmHg，因此属于1级高血压。
+所以，正确答案是：（D）1级高血压</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1644,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>（D）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级标准如下：
+- 1级高血压：收缩压（SBP）在140-159 mmHg之间，或舒张压（DBP）在90-99 mmHg之间；
+- 2级高血压：收缩压（SBP）≥160 mmHg，或舒张压（DBP）≥100 mmHg；
+- 3级高血压：收缩压（SBP）≥180 mmHg，或舒张压（DBP）≥110 mmHg。
+根据患者描述，其收缩压（SBP）为154 mmHg，舒张压（DBP）为93 mmHg，因此属于1级高血压。
+所以，正确答案是（C）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -1605,7 +1699,9 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>（A）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据血压水平来划分的。对于56岁的女性患者，如果她的收缩压（SBP）为147 mmHg，舒张压（DBP）为92 mmHg，根据指南，这属于2级高血压的范围。
+选项：
+（B）2级高血压</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1751,14 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>（B）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据血压值和是否合并其他心血管疾病危险因素来划分的。对于56岁的女性患者，如果她的血压值为收缩压（SBP）148 mmHg，舒张压（DBP）92 mmHg，这属于高血压的范围。
+根据指南，我们可以进一步分析患者的血压分级：
+- 1级高血压：SBP 140-159 mmHg 或 DBP 90-99 mmHg；
+- 2级高血压：SBP 160-179 mmHg 或 DBP 100-109 mmHg；
+- 3级高血压：SBP ≥ 180 mmHg 或 DBP ≥ 110 mmHg。
+由于患者的血压值SBP 148 mmHg和DBP 92 mmHg均高于正常范围，但尚未达到3级高血压的标准，因此她应该被归类为2级高血压。
+所以，根据患者的描述，正确的选项是：
+（B）2级高血压</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1808,15 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类和分级如下：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 正常高值：120 mmHg ≤ SBP ≤ 129 mmHg 或者 80 mmHg ≤ DBP ≤ 89 mmHg
+- 1级高血压（轻度）：130 mmHg ≤ SBP ≤ 139 mmHg 或者 85 mmHg ≤ DBP ≤ 89 mmHg
+- 2级高血压（中度）：140 mmHg ≤ SBP ≤ 159 mmHg 或者 90 mmHg ≤ DBP ≤ 99 mmHg
+- 3级高血压（重度）：SBP ≥ 160 mmHg 或者 DBP ≥ 100 mmHg
+根据患者的描述，患者的收缩压为158 mmHg，舒张压为96 mmHg，因此属于1级高血压（轻度）。
+所以，正确答案是：
+（B）1级高血压</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1866,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准如下：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 正常高值：收缩压（SBP）120-129 mmHg 和/或 舒张压（DBP）80-89 mmHg
+- 1级高血压（轻度）：收缩压（SBP）130-139 mmHg 和/或 舒张压（DBP）85-89 mmHg
+- 2级高血压（中度）：收缩压（SBP）140-159 mmHg 和/或 舒张压（DBP）90-99 mmHg
+- 3级高血压（重度）：收缩压（SBP）≥160 mmHg 和/或 舒张压（DBP）≥100 mmHg
+根据患者的描述，她的收缩压为157 mmHg，舒张压为94 mmHg，因此属于2级高血压（中度）。所以正确答案是：
+（D）2级高血压</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1923,8 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级依据是收缩压（SBP）和舒张压（DBP）的数值。对于56岁的男性患者，如果收缩压大于等于140 mmHg且小于159 mmHg，或者舒张压大于等于90 mmHg且小于99 mmHg，则诊断为1级高血压；如果收缩压大于等于160 mmHg，或者舒张压大于等于100 mmHg，则诊断为2级高血压；如果收缩压大于等于180 mmHg，或者舒张压大于等于110 mmHg，则诊断为3级高血压。
+在本例中，患者的收缩压为158 mmHg，舒张压为93 mmHg，因此属于1级高血压。所以正确答案是（D）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1974,10 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，该患者的血压分级如下：
+- 收缩压（SBP）152 mmHg，属于150-159 mmHg的范围；
+- 舒张压（DBP）98 mmHg，属于90-99 mmHg的范围。
+因此，根据上述标准，该患者属于1级高血压（B）。</t>
         </is>
       </c>
     </row>
@@ -1905,7 +2027,12 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>（B）3级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类和分级如下：
+- 1级高血压：收缩压（SBP）在140~159 mmHg，舒张压（DBP）在90~99 mmHg。
+- 2级高血压：收缩压（SBP）≥160 mmHg，舒张压（DBP）在100~109 mmHg。
+- 3级高血压：收缩压（SBP）≥180 mmHg，舒张压（DBP）≥110 mmHg。
+- 单纯收缩期高血压：收缩压（SBP）≥140 mmHg，舒张压（DBP）&lt;90 mmHg。
+根据患者的描述，他的收缩压（SBP）为158 mmHg，舒张压（DBP）为94 mmHg，因此他的血压属于1级高血压。所以正确答案是（C）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -1955,7 +2082,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据血压值和是否有并发症。对于这位43岁的男性患者，他的收缩压（SBP）为147 mmHg，舒张压（DBP）为94 mmHg，因此属于高血压的范围。
+接下来，我们需要根据患者的年龄、血压值以及是否有其他并发症来进一步分级。根据指南，如果患者的年龄小于55岁，且没有糖尿病、肾脏疾病、心脏病等并发症，那么他应该被归类为1级高血压。
+然而，这位患者在实验室检查中显示血肌酐为128 μmol/L，这表示可能存在肾脏损害，因此需要进一步评估。此外，他还存在白蛋白尿（330 mg/24h），这也是肾脏疾病的标志。
+因此，尽管患者的血压值符合1级高血压的标准，但由于存在肾脏损害和白蛋白尿，他可能属于更高风险的高血压患者。在这种情况下，我们可能需要考虑使用更积极的治疗策略，包括药物治疗，以降低心血管事件的风险。
+综上所述，虽然这位患者符合1级高血压的标准，但由于存在肾脏损害和白蛋白尿，他可能属于更高风险的高血压患者。因此，最合适的答案是：
+（B）1级高血压</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2137,9 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据血压值和是否伴有其他心血管疾病的危险因素。对于这位44岁的男性患者，其收缩压（SBP）为158 mmHg，舒张压（DBP）为96 mmHg，属于高血压的范围。然而，由于缺乏具体的分级标准，我们无法直接判断其为1级、2级还是3级高血压。
+此外，患者还伴有白蛋白尿（12 mg/24h）和血肌酐（320 μmol/L）升高，这可能表明患者存在肾脏损害，这是心血管疾病的一个危险因素。
+因此，根据患者的血压值和其他心血管疾病的危险因素，我们可以初步判断该患者可能属于高血压的危险分层中的中危或高危。但是，为了更准确地确定患者的血压分级，我们需要参考《中国高血压防治指南2018》的具体分级标准，并结合患者的其他相关危险因素进行综合评估。</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2189,10 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据血压值和是否伴有其他心血管疾病的危险因素。对于54岁的男性患者，如果收缩压（SBP）≥160 mmHg和（或）舒张压（DBP）≥100 mmHg，则诊断为3级高血压（B）。
+患者描述中的血压值为SBP 152 mmHg和DBP 98 mmHg，因此，根据上述标准，患者的血压属于1级高血压（D）。
+此外，患者还伴有血肌酐基础升高≥30%，这属于高血压的并发症之一，即慢性肾脏病3期（CKD3期）。
+综上所述，该患者的血压分级是1级高血压，并且存在慢性肾脏病3期的风险。</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2242,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>（B）3级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准是：
+- 1级高血压（轻度）：收缩压（SBP）在140~159 mmHg之间，或者舒张压（DBP）在90~99 mmHg之间。
+- 2级高血压（中度）：收缩压在160~179 mmHg之间，或者舒张压在100~109 mmHg之间。
+- 3级高血压（重度）：收缩压≥180 mmHg，或者舒张压≥110 mmHg。
+对于该患者，他的收缩压为158 mmHg，舒张压为96 mmHg，因此他的血压属于2级高血压（中度）。所以正确答案是（C）2级高血压。</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2296,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，对于44岁的男性患者，如果收缩压（SBP）为158 mmHg，舒张压（DBP）为96 mmHg，可以将其分为2级高血压（B）。这是因为根据指南中的分类标准，2级高血压定义为SBP≥160 mmHg和/或DBP≥100 mmHg。虽然该患者有慢性心力衰竭和慢性肾病5期的背景，但这并不影响其血压的分级。</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2346,9 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据收缩压和舒张压的数值。对于55岁的患者，如果收缩压在140-159 mmHg或者舒张压在90-99 mmHg之间，则被归类为1级高血压；如果收缩压≥160 mmHg或者舒张压≥100 mmHg，则被归类为2级高血压。
+在本例中，患者的收缩压为147 mmHg，舒张压为95 mmHg，因此属于1级高血压的范围。所以，正确的答案是：
+（C）1级高血压</t>
         </is>
       </c>
     </row>
@@ -2255,7 +2398,13 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>（B）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据患者的收缩压（SBP）和舒张压（DBP）的数值。对于52岁的男性患者，其收缩压为153 mmHg，舒张压为96 mmHg。
+根据指南，我们可以将高血压分为以下四级：
+- 1级高血压：收缩压在140-159 mmHg之间，或者舒张压在90-99 mmHg之间；
+- 2级高血压：收缩压在160-179 mmHg之间，或者舒张压在100-109 mmHg之间；
+- 3级高血压：收缩压≥180 mmHg，或者舒张压≥110 mmHg；
+- 单纯收缩期高血压：舒张压≤90 mmHg，而收缩压≥140 mmHg。
+根据上述标准，该患者收缩压为153 mmHg，舒张压为96 mmHg，因此他的血压属于1级高血压范畴。所以正确答案是（C）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -2305,7 +2454,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级标准如下：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 1级高血压：SBP 121~139 mmHg 或 DBP 81~90 mmHg
+- 2级高血压：SBP 140~159 mmHg 或 DBP 91~104 mmHg
+- 3级高血压：SBP ≥160 mmHg 或 DBP ≥110 mmHg
+根据患者描述，患者的收缩压为154 mmHg，舒张压为93 mmHg，因此属于2级高血压。所以正确答案是（C）2级高血压。</t>
         </is>
       </c>
     </row>
@@ -2355,7 +2509,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是基于收缩压（SBP）和舒张压（DBP）的数值来确定的。具体分级如下：
+- 1级高血压：SBP 140-159 mmHg 或者 DBP 90-99 mmHg
+- 2级高血压：SBP 160-179 mmHg 或者 DBP 100-109 mmHg
+- 3级高血压：SBP ≥ 180 mmHg 或者 DBP ≥ 110 mmHg
+根据患者描述，患者的收缩压为152 mmHg，舒张压为95 mmHg，因此属于2级高血压。所以正确答案是（C）2级高血压。</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2563,10 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>（A）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据血压值和是否伴有其他心血管疾病的危险因素。对于这位55岁的患者，其收缩压（SBP）为156 mmHg，舒张压（DBP）为93 mmHg，属于高血压的范围。同时，患者有糖尿病史，这属于心血管疾病的重要危险因素之一。
+在高血压的分级中，1级高血压定义为收缩压在140-159 mmHg之间，或舒张压在90-99 mmHg之间；2级高血压定义为收缩压在160-179 mmHg之间，或舒张压在100-109 mmHg之间；3级高血压定义为收缩压≥180 mmHg或舒张压≥110 mmHg。
+由于患者没有达到3级高血压的标准，且收缩压和舒张压都超过了1级高血压的上限，但未达到2级高血压的标准，因此可以将其归类为1级高血压。
+综上所述，该患者的血压分级为1级高血压。</t>
         </is>
       </c>
     </row>
@@ -2455,7 +2616,15 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>（A）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准是：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 正常高值血压：120 mmHg ≤ SBP ≤ 129 mmHg 或者 80 mmHg ≤ DBP ≤ 89 mmHg
+- 1级高血压：130 mmHg ≤ SBP ≤ 139 mmHg 或者 85 mmHg ≤ DBP ≤ 89 mmHg
+- 2级高血压：140 mmHg ≤ SBP ≤ 159 mmHg 或者 90 mmHg ≤ DBP ≤ 99 mmHg
+- 3级高血压：SBP ≥ 160 mmHg 或者 DBP ≥ 100 mmHg
+根据患者的描述，其收缩压为156 mmHg，属于1级高血压的范围；舒张压为93 mmHg，也符合1级高血压的标准。因此，该患者的血压分级为1级高血压。
+正确答案是：
+（A）1级高血压</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2674,15 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，血压的分级主要依据收缩压（SBP）和舒张压（DBP）的数值。对于75岁的男性患者，其收缩压为145 mmHg，舒张压为69 mmHg。
+根据指南，血压的分级如下：
+- 正常血压：收缩压在90-120 mmHg之间，舒张压在60-80 mmHg之间。
+- 正常高值血压：收缩压在120-139 mmHg之间，舒张压在80-89 mmHg之间。
+- 1级高血压（轻度）：收缩压在140-159 mmHg之间，舒张压在90-99 mmHg之间。
+- 2级高血压（中度）：收缩压在160-179 mmHg之间，舒张压在100-109 mmHg之间。
+- 3级高血压（重度）：收缩压≥180 mmHg，舒张压≥110 mmHg。
+根据上述信息，该患者收缩压为145 mmHg，属于1级高血压的范围。因此，正确答案是：
+（B）1级高血压</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2732,15 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>（B）正常血压</t>
+          <t>根据《中国高血压防治指南2018》，血压分级如下：
+- 正常血压：收缩压（SBP）≤120 mmHg 和 舒张压（DBP）≤80 mmHg
+- 正常高值：120 mmHg ≤ SBP ≤ 129 mmHg 或者 80 mmHg ≤ DBP ≤ 89 mmHg
+- 1级高血压（轻度）：130 mmHg ≤ SBP ≤ 139 mmHg 或者 85 mmHg ≤ DBP ≤ 89 mmHg
+- 2级高血压（中度）：140 mmHg ≤ SBP ≤ 159 mmHg 或者 90 mmHg ≤ DBP ≤ 99 mmHg
+- 3级高血压（重度）：SBP ≥ 160 mmHg 或者 DBP ≥ 100 mmHg
+- 单纯收缩期高血压：DBP ≤ 90 mmHg 且 SBP ≥ 140 mmHg
+根据患者描述，该患者的收缩压为138 mmHg，舒张压为88 mmHg，因此属于正常血压范围。所以，正确答案是：
+（B）正常血压</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2792,14 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类和定义如下：
+- 正常血压：收缩压（SBP）&lt;120 mmHg 和 舒张压（DBP）&lt;80 mmHg。
+- 血压正常高值：120 mmHg ≤ SBP &lt; 130 mmHg 或 80 mmHg ≤ DBP &lt; 90 mmHg。
+- 1级高血压（轻度）：130 mmHg ≤ SBP &lt; 140 mmHg 或 90 mmHg ≤ DBP &lt; 100 mmHg。
+- 2级高血压（中度）：140 mmHg ≤ SBP &lt; 160 mmHg 或 100 mmHg ≤ DBP &lt; 110 mmHg。
+- 3级高血压（重度）：SBP ≥ 160 mmHg 或 DBP ≥ 110 mmHg。
+根据患者描述，患者的收缩压为155 mmHg，舒张压为92 mmHg。因此，根据上述标准，患者的血压属于2级高血压（中度）。
+所以，正确的答案是（D）2级高血压。</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2849,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>（B）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，对于78岁的男性患者，如果收缩压（SBP）为155 mmHg，舒张压（DBP）为57 mmHg，心率为71 bpm，可以判断为高血压。
+首先，我们需要了解高血压的分类标准。根据《中国高血压防治指南2018》，高血压分为以下四级：
+- 1级高血压：收缩压在140~159 mmHg之间，或舒张压在90~99 mmHg之间。
+- 2级高血压：收缩压在160~179 mmHg之间，或舒张压在100~109 mmHg之间。
+- 3级高血压：收缩压≥180 mmHg，或舒张压≥110 mmHg。
+- 单纯收缩期高血压：舒张压≤90 mmHg，而收缩压≥140 mmHg。
+根据患者的血压数据，他的收缩压为155 mmHg，超过了160 mmHg，因此属于2级高血压。同时，他的舒张压为57 mmHg，低于90 mmHg，所以不符合单纯收缩期高血压的定义。
+因此，根据上述分析，该患者的血压分级为2级高血压。</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2906,9 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据血压值和是否有并发症来划分的。对于55岁的患者，如果收缩压（SBP）≥160 mmHg和/或舒张压（DBP）≥100 mmHg，则被归类为3级高血压；如果收缩压在140-159 mmHg和/或舒张压在90-99 mmHg之间，则被归类为2级高血压；如果收缩压在130-139 mmHg和/或舒张压在85-89 mmHg之间，则被归类为1级高血压；而收缩压在120-129 mmHg和/或舒张压在80-84 mmHg之间，则被归类为正常高值。
+在本例中，患者的收缩压为147 mmHg，舒张压为95 mmHg，因此属于2级高血压的范围。所以，正确的答案是：
+（D）2级高血压</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2958,16 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据血压水平，同时考虑其他心血管危险因素。对于这位57岁的男性患者，其收缩压（SBP）为157 mmHg，舒张压（DBP）为96 mmHg，属于高血压的范围。
+然而，我们还需要考虑其他心血管危险因素。根据患者的描述，他的餐后血糖为14.0 mmol/L，高于正常范围；血钾浓度为4.0 mmol/L，低于正常范围；血肌酐为23 μmol/L，在正常范围内；白蛋白尿为56 mg/24h，提示可能存在肾脏损害。
+根据这些危险因素，我们可以将患者的心血管疾病危险因素分层。根据《中国高血压防治指南2018》，如果患者具有以下情况之一，则应被归类为高血压高危组：
+- 糖尿病
+- 肾功能损害（血肌酐≥132.6 μmol/L或肌酐清除率降低）
+- 蛋白尿（尿白蛋白排泄率男性≥30 mg/24h，女性≥20 mg/24h）
+在本例中，患者有餐后血糖升高、血钾降低以及蛋白尿，因此他应该被归类为高血压高危组。
+综上所述，这位患者的血压分级应该为：
+（D）2级高血压
+需要注意的是，虽然患者的血压水平较高，但由于其他心血管危险因素的存在，他应该被归类为高血压高危组，而不是简单的2级高血压。</t>
         </is>
       </c>
     </row>
@@ -2807,7 +3017,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据收缩压和舒张压的数值。
+- 1级高血压：收缩压在140~159mmHg或舒张压在90~99mmHg。
+- 2级高血压：收缩压在160~179mmHg或舒张压在100~109mmHg。
+- 单纯收缩期高血压：仅收缩压≥140mmHg而舒张压&lt;90mmHg。
+根据患者描述，患者的收缩压为155mmHg，舒张压为94mmHg，因此属于2级高血压。
+所以，正确答案是：（C）2级高血压</t>
         </is>
       </c>
     </row>
@@ -2857,7 +3072,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，对于57岁的患者，其血压分级需要考虑年龄、血压值以及是否有其他心血管疾病危险因素。
+患者收缩压（SBP）为148 mmHg，舒张压（DBP）为92 mmHg，属于高血压的范围。同时，患者有糖尿病肾病，这属于心血管疾病危险因素之一。
+根据指南，对于55-64岁的患者，如果收缩压≥160 mmHg和/或舒张压≥100 mmHg，或者收缩压在140-159 mmHg和/或舒张压在90-99 mmHg，并且伴有其他心血管疾病危险因素，则被归类为3级高血压（也称为严重高血压）。
+由于患者有糖尿病肾病，这被视为心血管疾病的一个危险因素，因此即使患者的血压没有达到160/100 mmHg的标准，根据指南，患者仍应该被归类为3级高血压。
+所以，根据上述分析，正确的答案是：
+（A）3级高血压</t>
         </is>
       </c>
     </row>
@@ -2907,7 +3127,12 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据收缩压（SBP）和舒张压（DBP）的数值来划分的。具体分级如下：
+- 1级高血压：SBP 140~159 mmHg 或 DBP 90~99 mmHg；
+- 2级高血压：SBP ≥ 160 mmHg 或 DBP ≥ 100 mmHg；
+- 3级高血压：SBP ≥ 180 mmHg 或 DBP ≥ 110 mmHg。
+根据患者描述，其收缩压为144 mmHg，舒张压为97 mmHg，因此属于1级高血压。所以正确答案是：
+（B）1级高血压</t>
         </is>
       </c>
     </row>
@@ -2957,7 +3182,14 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类和分级如下：
+- 正常血压：收缩压≤120mmHg且舒张压≤80mmHg
+- 血压正常高值：收缩压在120-139mmHg之间或舒张压在80-89mmHg之间
+- 1级高血压：收缩压在140-159mmHg之间或舒张压在90-99mmHg之间
+- 2级高血压：收缩压≥160mmHg或舒张压≥100mmHg
+- 单纯收缩期高血压：收缩压≥140mmHg而舒张压&lt;90mmHg
+根据患者描述，该患者78岁男性，收缩压为155 mmHg，舒张压为93 mmHg，因此属于1级高血压范畴。
+所以，正确答案是（D）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3239,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类标准如下：
+- 正常血压：收缩压&lt;120mmHg且舒张压&lt;80mmHg
+- 正常高值：收缩压在120-129mmHg或舒张压在80-89mmHg
+- 1级高血压（轻度）：收缩压在130-139mmHg或舒张压在85-89mmHg
+- 2级高血压（中度）：收缩压在140-159mmHg或舒张压在90-99mmHg
+- 3级高血压（重度）：收缩压≥160mmHg或舒张压≥100mmHg
+根据患者的描述，他的收缩压为167 mmHg，舒张压为93 mmHg，因此他的血压属于2级高血压（中度）的范围。所以正确答案是：
+（C）2级高血压</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3296,14 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>（C）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类主要依据血压值和是否有并发症。对于57岁的女性患者，如果她的血压值为143/96 mmHg，这属于高血压的范围。
+在分类上，根据血压值和是否有并发症，可以分为以下四级：
+1. 正常血压：收缩压≤120 mmHg 和 舒张压≤80 mmHg；
+2. 1级高血压（轻度）：收缩压120-139 mmHg 或 舒张压80-89 mmHg；
+3. 2级高血压（中度）：收缩压140-159 mmHg 或 舒张压90-99 mmHg；
+4. 3级高血压（重度）：收缩压≥160 mmHg 或 舒张压≥100 mmHg。
+由于患者有稳定性心绞痛，这属于心血管疾病的并发症之一，因此她应该被归类为高血压的3级。所以，根据上述信息，正确的答案是：
+（A）3级高血压</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3353,15 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断和分级如下：
+1. 正常血压：收缩压≤120mmHg且舒张压≤80mmHg；
+2. 高血压：根据血压水平，进一步分为1级、2级和3级高血压。
+   - 1级高血压：收缩压在120-129mmHg之间，或者舒张压在80-89mmHg之间；
+   - 2级高血压：收缩压在130-139mmHg之间，或者舒张压在90-99mmHg之间；
+   - 3级高血压：收缩压≥140mmHg，或者舒张压≥100mmHg。
+根据患者描述，患者的收缩压为148mmHg，舒张压为92mmHg，因此属于高血压范畴。
+由于患者的收缩压高于140mmHg但低于160mmHg，舒张压低于95mmHg，所以属于2级高血压。
+因此，正确答案是（C）2级高血压。</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3411,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>（C）3级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据血压值和是否有并发症来划分的。对于84岁的男性患者，其收缩压（SBP）为186 mmHg，属于高血压的范围；同时，由于患者年龄较大，即使没有明显的并发症，也需要考虑心血管疾病的危险因素。
+在高血压的分级中，3级高血压是指收缩压在180-199 mmHg或者舒张压在110-129 mmHg的高血压，而2级高血压是指收缩压在160-179 mmHg或者舒张压在100-109 mmHg的高血压。根据患者的血压值，可以判断为2级高血压。
+然而，由于患者的舒张压（DBP）仅为54 mmHg，远低于正常范围（60-80 mmHg），这可能导致患者出现低血压的症状。在这种情况下，需要进一步评估患者的整体健康状况，包括是否有其他可能导致低血压的疾病或药物副作用等。
+综上所述，虽然患者的血压值符合2级高血压的标准，但由于其舒张压偏低，可能需要进一步评估。因此，最合适的答案是：
+（E）需要进一步评估血压分级</t>
         </is>
       </c>
     </row>
@@ -3207,7 +3465,10 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>（B）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据患者的血压水平来划分的。对于56岁的女性患者，其收缩压（SBP）148 mmHg，舒张压（DBP）92 mmHg，属于高血压的范围。
+在高血压的分级中，1级高血压定义为收缩压在140-159 mmHg之间，或者舒张压在90-99 mmHg之间；2级高血压定义为收缩压在160 mmHg以上，或者舒张压在100 mmHg以上；3级高血压定义为收缩压在180 mmHg以上，或者舒张压在110 mmHg以上。
+由于患者的收缩压超过了160 mmHg，因此她应该被归类为2级高血压。所以，正确的答案是：
+（B）2级高血压</t>
         </is>
       </c>
     </row>
@@ -3257,7 +3518,10 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>（C）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，对于50岁的男性患者，如果收缩压（SBP）为156 mmHg，舒张压（DBP）为93 mmHg，可以将其归类为2级高血压。
+在指南中，高血压的分级是根据患者的年龄、血压水平以及是否存在其他心血管疾病风险因素来确定的。对于50岁以上的患者，如果收缩压≥160 mmHg或者舒张压≥100 mmHg，则被分类为2级高血压。
+因此，根据患者的年龄、血压水平和提供的数据，该患者应该被归类为2级高血压。所以正确答案是：
+（D）2级高血压</t>
         </is>
       </c>
     </row>
@@ -3307,7 +3571,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>（C）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分类是根据血压水平来划分的。对于43岁的男性患者，其收缩压（SBP）为147 mmHg，舒张压（DBP）为94 mmHg，属于高血压的范围。
+根据指南，将高血压分为以下四级：
+1. 1级高血压：收缩压在140-159 mmHg之间，或者舒张压在90-99 mmHg之间。
+2. 2级高血压：收缩压在160-179 mmHg之间，或者舒张压在100-109 mmHg之间。
+3. 3级高血压：收缩压≥180 mmHg，或者舒张压≥110 mmHg。
+由于患者的收缩压为147 mmHg，未达到160 mmHg，舒张压为94 mmHg，未达到100 mmHg，因此属于1级高血压。
+所以，正确的答案是：
+（D）1级高血压</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3628,9 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>（D）2级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级主要依据患者的收缩压（SBP）和舒张压（DBP）。对于44岁的男性患者，如果收缩压≥160mmHg和（或）舒张压≥100mmHg，则诊断为3级高血压；如果收缩压在140-159mmHg和（或）舒张压在90-99mmHg之间，则诊断为2级高血压；如果收缩压在130-139mmHg和（或）舒张压在85-89mmHg之间，则诊断为1级高血压；而收缩压&lt;130mmHg和（或）舒张压&lt;85mmHg，则认为是正常血压。
+在本例中，患者的收缩压为158 mmHg，舒张压为96 mmHg，因此属于2级高血压的范围。所以，正确的答案是：
+（D）2级高血压</t>
         </is>
       </c>
     </row>
@@ -3407,7 +3680,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>（C）血压正常高值</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据患者的血压值以及是否有其他心血管疾病的危险因素来确定的。
+对于这位50岁的患者，他的收缩压（SBP）为147 mmHg，舒张压（DBP）为96 mmHg，根据指南，这属于高血压的范围。同时，患者有白蛋白尿（70 mg/24h），这是肾脏损害的一个标志，也是心血管疾病的一个危险因素。此外，患者的血肌酐（60 μmol/L）和肾小球滤过率（GFR 100.0 ml/min*1.73/m²）均在正常范围内，但考虑到患者年龄和血压水平，存在进一步发展至慢性肾病的风险。
+因此，根据上述信息，该患者可以被认为是高血压合并心血管疾病的高危人群。在《中国高血压防治指南2018》中，这种类型的患者通常被归类为2级高血压。
+所以，根据患者的描述，正确的选项是：
+（A）2级高血压</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3734,14 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>（A）单纯收缩期高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的诊断标准如下：
+- 正常血压：收缩压（SBP）&lt; 120 mmHg 和 舒张压（DBP）&lt; 80 mmHg
+- 正常高值血压：收缩压（SBP）120~129 mmHg 或 舒张压（DBP）80~89 mmHg
+- 1级高血压：收缩压（SBP）130~139 mmHg 或 舒张压（DBP）85~89 mmHg
+- 2级高血压：收缩压（SBP）≥ 140 mmHg 或 舒张压（DBP）≥ 90 mmHg
+- 单纯收缩期高血压：收缩压（SBP）≥ 140 mmHg 且 舒张压（DBP）&lt; 90 mmHg
+根据患者描述，该患者的收缩压（SBP）为147 mmHg，舒张压（DBP）为96 mmHg，因此属于2级高血压。同时，患者有糖尿病，这属于心血管疾病的风险因素之一。
+综上所述，该患者的血压分级为2级高血压。</t>
         </is>
       </c>
     </row>
@@ -3507,7 +3791,12 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级是根据患者的收缩压（SBP）和舒张压（DBP）来划分的。具体分为以下四级：
+- 1级高血压：收缩压在140~159mmHg和（或）舒张压在90~99mmHg；
+- 2级高血压：收缩压在160~179mmHg和（或）舒张压在100~109mmHg；
+- 3级高血压：收缩压≥180mmHg和（或）舒张压≥110mmHg；
+- 正常血压：收缩压≤140mmHg和舒张压≤90mmHg。
+根据您提供的信息，患者的收缩压为147 mmHg，舒张压为96 mmHg，因此属于1级高血压。所以正确答案是（B）1级高血压。</t>
         </is>
       </c>
     </row>
@@ -3557,7 +3846,15 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>（B）1级高血压</t>
+          <t>根据《中国高血压防治指南2018》，高血压的分级标准如下：
+- 正常血压：收缩压（SBP）&lt;120 mmHg 和 舒张压（DBP）&lt;80 mmHg
+- 1级高血压：SBP 120~129 mmHg 或 DBP 80~89 mmHg
+- 2级高血压：SBP 130~139 mmHg 或 DBP 90~99 mmHg
+- 3级高血压：SBP ≥140 mmHg 或 DBP ≥100 mmHg
+- 单纯收缩期高血压：SBP ≥140 mmHg 且 DBP &lt;90 mmHg
+根据患者描述，患者的收缩压为158 mmHg，舒张压为96 mmHg，因此属于2级高血压。
+所以，正确答案是：
+（B）1级高血压</t>
         </is>
       </c>
     </row>
